--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt1-Fzd9.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt1-Fzd9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Fzd9</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H2">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.193535364409654</v>
+        <v>0.3962276666666666</v>
       </c>
       <c r="N2">
-        <v>0.193535364409654</v>
+        <v>1.188683</v>
       </c>
       <c r="O2">
-        <v>0.1042377163903351</v>
+        <v>0.1703050239984229</v>
       </c>
       <c r="P2">
-        <v>0.1042377163903351</v>
+        <v>0.1960950025990754</v>
       </c>
       <c r="Q2">
-        <v>0.04547991735292069</v>
+        <v>0.007722345147444443</v>
       </c>
       <c r="R2">
-        <v>0.04547991735292069</v>
+        <v>0.06950110632699999</v>
       </c>
       <c r="S2">
-        <v>0.1042377163903351</v>
+        <v>0.01208495085727506</v>
       </c>
       <c r="T2">
-        <v>0.1042377163903351</v>
+        <v>0.01391502384444629</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H3">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5354338430498879</v>
+        <v>0.6295006666666667</v>
       </c>
       <c r="N3">
-        <v>0.5354338430498879</v>
+        <v>1.888502</v>
       </c>
       <c r="O3">
-        <v>0.2883834757945528</v>
+        <v>0.270569511325618</v>
       </c>
       <c r="P3">
-        <v>0.2883834757945528</v>
+        <v>0.3115429467724861</v>
       </c>
       <c r="Q3">
-        <v>0.1258244817640724</v>
+        <v>0.01226875815977778</v>
       </c>
       <c r="R3">
-        <v>0.1258244817640724</v>
+        <v>0.110418823438</v>
       </c>
       <c r="S3">
-        <v>0.2883834757945528</v>
+        <v>0.0191997814925137</v>
       </c>
       <c r="T3">
-        <v>0.2883834757945528</v>
+        <v>0.02210728205945951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H4">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.151949911846631</v>
+        <v>0.1632393333333333</v>
       </c>
       <c r="N4">
-        <v>0.151949911846631</v>
+        <v>0.489718</v>
       </c>
       <c r="O4">
-        <v>0.08183988422436068</v>
+        <v>0.07016289098309612</v>
       </c>
       <c r="P4">
-        <v>0.08183988422436068</v>
+        <v>0.08078794134585419</v>
       </c>
       <c r="Q4">
-        <v>0.03570752794275175</v>
+        <v>0.003181480193555555</v>
       </c>
       <c r="R4">
-        <v>0.03570752794275175</v>
+        <v>0.028633321742</v>
       </c>
       <c r="S4">
-        <v>0.08183988422436068</v>
+        <v>0.004978802560416046</v>
       </c>
       <c r="T4">
-        <v>0.08183988422436068</v>
+        <v>0.005732762769430156</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,49 +723,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H5">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.207626103926024</v>
+        <v>0.2196503333333334</v>
       </c>
       <c r="N5">
-        <v>0.207626103926024</v>
+        <v>0.6589510000000001</v>
       </c>
       <c r="O5">
-        <v>0.1118269573226977</v>
+        <v>0.0944092460889781</v>
       </c>
       <c r="P5">
-        <v>0.1118269573226977</v>
+        <v>0.1087060200723518</v>
       </c>
       <c r="Q5">
-        <v>0.04879117610193967</v>
+        <v>0.00428091177988889</v>
       </c>
       <c r="R5">
-        <v>0.04879117610193967</v>
+        <v>0.03852820601900001</v>
       </c>
       <c r="S5">
-        <v>0.1118269573226977</v>
+        <v>0.00669933906041582</v>
       </c>
       <c r="T5">
-        <v>0.1118269573226977</v>
+        <v>0.007713847070515627</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -785,49 +785,359 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H6">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.768127880435283</v>
+        <v>0.9179585</v>
       </c>
       <c r="N6">
-        <v>0.768127880435283</v>
+        <v>1.835917</v>
       </c>
       <c r="O6">
-        <v>0.4137119662680536</v>
+        <v>0.394553327603885</v>
       </c>
       <c r="P6">
-        <v>0.4137119662680536</v>
+        <v>0.3028680892102324</v>
       </c>
       <c r="Q6">
-        <v>0.1805065065252137</v>
+        <v>0.01789070517883333</v>
       </c>
       <c r="R6">
-        <v>0.1805065065252137</v>
+        <v>0.107344231073</v>
       </c>
       <c r="S6">
-        <v>0.4137119662680536</v>
+        <v>0.02799775052268248</v>
       </c>
       <c r="T6">
-        <v>0.4137119662680536</v>
+        <v>0.02149170874945153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.255165</v>
+      </c>
+      <c r="H7">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J7">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.3962276666666666</v>
+      </c>
+      <c r="N7">
+        <v>1.188683</v>
+      </c>
+      <c r="O7">
+        <v>0.1703050239984229</v>
+      </c>
+      <c r="P7">
+        <v>0.1960950025990754</v>
+      </c>
+      <c r="Q7">
+        <v>0.101103432565</v>
+      </c>
+      <c r="R7">
+        <v>0.9099308930849999</v>
+      </c>
+      <c r="S7">
+        <v>0.1582200731411478</v>
+      </c>
+      <c r="T7">
+        <v>0.1821799787546291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.255165</v>
+      </c>
+      <c r="H8">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J8">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.6295006666666667</v>
+      </c>
+      <c r="N8">
+        <v>1.888502</v>
+      </c>
+      <c r="O8">
+        <v>0.270569511325618</v>
+      </c>
+      <c r="P8">
+        <v>0.3115429467724861</v>
+      </c>
+      <c r="Q8">
+        <v>0.16062653761</v>
+      </c>
+      <c r="R8">
+        <v>1.44563883849</v>
+      </c>
+      <c r="S8">
+        <v>0.2513697298331043</v>
+      </c>
+      <c r="T8">
+        <v>0.2894356647130266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.255165</v>
+      </c>
+      <c r="H9">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J9">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.1632393333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.489718</v>
+      </c>
+      <c r="O9">
+        <v>0.07016289098309612</v>
+      </c>
+      <c r="P9">
+        <v>0.08078794134585419</v>
+      </c>
+      <c r="Q9">
+        <v>0.04165296448999999</v>
+      </c>
+      <c r="R9">
+        <v>0.3748766804099999</v>
+      </c>
+      <c r="S9">
+        <v>0.06518408842268007</v>
+      </c>
+      <c r="T9">
+        <v>0.07505517857642403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.255165</v>
+      </c>
+      <c r="H10">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J10">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2196503333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.6589510000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.0944092460889781</v>
+      </c>
+      <c r="P10">
+        <v>0.1087060200723518</v>
+      </c>
+      <c r="Q10">
+        <v>0.05604707730500001</v>
+      </c>
+      <c r="R10">
+        <v>0.504423695745</v>
+      </c>
+      <c r="S10">
+        <v>0.08770990702856228</v>
+      </c>
+      <c r="T10">
+        <v>0.1009921730018362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.255165</v>
+      </c>
+      <c r="H11">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J11">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.9179585</v>
+      </c>
+      <c r="N11">
+        <v>1.835917</v>
+      </c>
+      <c r="O11">
+        <v>0.394553327603885</v>
+      </c>
+      <c r="P11">
+        <v>0.3028680892102324</v>
+      </c>
+      <c r="Q11">
+        <v>0.2342308806525</v>
+      </c>
+      <c r="R11">
+        <v>1.405385283915</v>
+      </c>
+      <c r="S11">
+        <v>0.3665555770812025</v>
+      </c>
+      <c r="T11">
+        <v>0.2813763804607809</v>
       </c>
     </row>
   </sheetData>
